--- a/biology/Histoire de la zoologie et de la botanique/Ricardo_Ott/Ricardo_Ott.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ricardo_Ott/Ricardo_Ott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricardo Ott est un arachnologiste brésilien.
 Diplômé le l'université pontificale catholique du Rio Grande do Sul, il travaille au musée de sciences naturelles de la fundação Zoobotânica do Rio Grande do Sul.
@@ -513,7 +525,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Xenonemesia otti Indicatti, Lucas &amp; Brescovit, 2007
 Labicymbium otti Rodrigues, 2008
@@ -545,7 +559,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthogonatus ericae Indicatti, Lucas, Ott &amp; Brescovit, 2008
